--- a/doc/caipiao.xlsx
+++ b/doc/caipiao.xlsx
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>万位   [6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>千位 [9]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">当前最新期数是2016-10-19 061 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2016-10-19 054 (19032)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +67,14 @@
   </si>
   <si>
     <t>中奖期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万位   [6]这里是拉下列表，可以选择数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">比如当前最新期数是2016-10-19 061 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,10 +128,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,13 +431,13 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.375" customWidth="1"/>
     <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
@@ -448,92 +448,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -541,7 +541,7 @@
       <c r="A6">
         <v>50</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -549,13 +549,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
